--- a/CSC3510 S2021/00CourseNotesFormat CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat CSC3510 TU TH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\CSC3510 S2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910A4DB-5D22-4A3D-B077-8E8A95FF7899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="Week14Notes" sheetId="32" r:id="rId15"/>
     <sheet name="Week15Notes" sheetId="33" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -125,11 +124,14 @@
   <si>
     <t>Thursday</t>
   </si>
+  <si>
+    <t xml:space="preserve">Recreate a web page using WS from scratch </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,275 +702,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64250D2B-EB2B-4CC5-9817-72D9789B74F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="259" max="260" width="14.6640625" customWidth="1"/>
-    <col min="261" max="261" width="18.44140625" customWidth="1"/>
+    <col min="259" max="260" width="14.7109375" customWidth="1"/>
+    <col min="261" max="261" width="18.42578125" customWidth="1"/>
     <col min="262" max="262" width="12" customWidth="1"/>
     <col min="263" max="263" width="11" customWidth="1"/>
-    <col min="515" max="516" width="14.6640625" customWidth="1"/>
-    <col min="517" max="517" width="18.44140625" customWidth="1"/>
+    <col min="515" max="516" width="14.7109375" customWidth="1"/>
+    <col min="517" max="517" width="18.42578125" customWidth="1"/>
     <col min="518" max="518" width="12" customWidth="1"/>
     <col min="519" max="519" width="11" customWidth="1"/>
-    <col min="771" max="772" width="14.6640625" customWidth="1"/>
-    <col min="773" max="773" width="18.44140625" customWidth="1"/>
+    <col min="771" max="772" width="14.7109375" customWidth="1"/>
+    <col min="773" max="773" width="18.42578125" customWidth="1"/>
     <col min="774" max="774" width="12" customWidth="1"/>
     <col min="775" max="775" width="11" customWidth="1"/>
-    <col min="1027" max="1028" width="14.6640625" customWidth="1"/>
-    <col min="1029" max="1029" width="18.44140625" customWidth="1"/>
+    <col min="1027" max="1028" width="14.7109375" customWidth="1"/>
+    <col min="1029" max="1029" width="18.42578125" customWidth="1"/>
     <col min="1030" max="1030" width="12" customWidth="1"/>
     <col min="1031" max="1031" width="11" customWidth="1"/>
-    <col min="1283" max="1284" width="14.6640625" customWidth="1"/>
-    <col min="1285" max="1285" width="18.44140625" customWidth="1"/>
+    <col min="1283" max="1284" width="14.7109375" customWidth="1"/>
+    <col min="1285" max="1285" width="18.42578125" customWidth="1"/>
     <col min="1286" max="1286" width="12" customWidth="1"/>
     <col min="1287" max="1287" width="11" customWidth="1"/>
-    <col min="1539" max="1540" width="14.6640625" customWidth="1"/>
-    <col min="1541" max="1541" width="18.44140625" customWidth="1"/>
+    <col min="1539" max="1540" width="14.7109375" customWidth="1"/>
+    <col min="1541" max="1541" width="18.42578125" customWidth="1"/>
     <col min="1542" max="1542" width="12" customWidth="1"/>
     <col min="1543" max="1543" width="11" customWidth="1"/>
-    <col min="1795" max="1796" width="14.6640625" customWidth="1"/>
-    <col min="1797" max="1797" width="18.44140625" customWidth="1"/>
+    <col min="1795" max="1796" width="14.7109375" customWidth="1"/>
+    <col min="1797" max="1797" width="18.42578125" customWidth="1"/>
     <col min="1798" max="1798" width="12" customWidth="1"/>
     <col min="1799" max="1799" width="11" customWidth="1"/>
-    <col min="2051" max="2052" width="14.6640625" customWidth="1"/>
-    <col min="2053" max="2053" width="18.44140625" customWidth="1"/>
+    <col min="2051" max="2052" width="14.7109375" customWidth="1"/>
+    <col min="2053" max="2053" width="18.42578125" customWidth="1"/>
     <col min="2054" max="2054" width="12" customWidth="1"/>
     <col min="2055" max="2055" width="11" customWidth="1"/>
-    <col min="2307" max="2308" width="14.6640625" customWidth="1"/>
-    <col min="2309" max="2309" width="18.44140625" customWidth="1"/>
+    <col min="2307" max="2308" width="14.7109375" customWidth="1"/>
+    <col min="2309" max="2309" width="18.42578125" customWidth="1"/>
     <col min="2310" max="2310" width="12" customWidth="1"/>
     <col min="2311" max="2311" width="11" customWidth="1"/>
-    <col min="2563" max="2564" width="14.6640625" customWidth="1"/>
-    <col min="2565" max="2565" width="18.44140625" customWidth="1"/>
+    <col min="2563" max="2564" width="14.7109375" customWidth="1"/>
+    <col min="2565" max="2565" width="18.42578125" customWidth="1"/>
     <col min="2566" max="2566" width="12" customWidth="1"/>
     <col min="2567" max="2567" width="11" customWidth="1"/>
-    <col min="2819" max="2820" width="14.6640625" customWidth="1"/>
-    <col min="2821" max="2821" width="18.44140625" customWidth="1"/>
+    <col min="2819" max="2820" width="14.7109375" customWidth="1"/>
+    <col min="2821" max="2821" width="18.42578125" customWidth="1"/>
     <col min="2822" max="2822" width="12" customWidth="1"/>
     <col min="2823" max="2823" width="11" customWidth="1"/>
-    <col min="3075" max="3076" width="14.6640625" customWidth="1"/>
-    <col min="3077" max="3077" width="18.44140625" customWidth="1"/>
+    <col min="3075" max="3076" width="14.7109375" customWidth="1"/>
+    <col min="3077" max="3077" width="18.42578125" customWidth="1"/>
     <col min="3078" max="3078" width="12" customWidth="1"/>
     <col min="3079" max="3079" width="11" customWidth="1"/>
-    <col min="3331" max="3332" width="14.6640625" customWidth="1"/>
-    <col min="3333" max="3333" width="18.44140625" customWidth="1"/>
+    <col min="3331" max="3332" width="14.7109375" customWidth="1"/>
+    <col min="3333" max="3333" width="18.42578125" customWidth="1"/>
     <col min="3334" max="3334" width="12" customWidth="1"/>
     <col min="3335" max="3335" width="11" customWidth="1"/>
-    <col min="3587" max="3588" width="14.6640625" customWidth="1"/>
-    <col min="3589" max="3589" width="18.44140625" customWidth="1"/>
+    <col min="3587" max="3588" width="14.7109375" customWidth="1"/>
+    <col min="3589" max="3589" width="18.42578125" customWidth="1"/>
     <col min="3590" max="3590" width="12" customWidth="1"/>
     <col min="3591" max="3591" width="11" customWidth="1"/>
-    <col min="3843" max="3844" width="14.6640625" customWidth="1"/>
-    <col min="3845" max="3845" width="18.44140625" customWidth="1"/>
+    <col min="3843" max="3844" width="14.7109375" customWidth="1"/>
+    <col min="3845" max="3845" width="18.42578125" customWidth="1"/>
     <col min="3846" max="3846" width="12" customWidth="1"/>
     <col min="3847" max="3847" width="11" customWidth="1"/>
-    <col min="4099" max="4100" width="14.6640625" customWidth="1"/>
-    <col min="4101" max="4101" width="18.44140625" customWidth="1"/>
+    <col min="4099" max="4100" width="14.7109375" customWidth="1"/>
+    <col min="4101" max="4101" width="18.42578125" customWidth="1"/>
     <col min="4102" max="4102" width="12" customWidth="1"/>
     <col min="4103" max="4103" width="11" customWidth="1"/>
-    <col min="4355" max="4356" width="14.6640625" customWidth="1"/>
-    <col min="4357" max="4357" width="18.44140625" customWidth="1"/>
+    <col min="4355" max="4356" width="14.7109375" customWidth="1"/>
+    <col min="4357" max="4357" width="18.42578125" customWidth="1"/>
     <col min="4358" max="4358" width="12" customWidth="1"/>
     <col min="4359" max="4359" width="11" customWidth="1"/>
-    <col min="4611" max="4612" width="14.6640625" customWidth="1"/>
-    <col min="4613" max="4613" width="18.44140625" customWidth="1"/>
+    <col min="4611" max="4612" width="14.7109375" customWidth="1"/>
+    <col min="4613" max="4613" width="18.42578125" customWidth="1"/>
     <col min="4614" max="4614" width="12" customWidth="1"/>
     <col min="4615" max="4615" width="11" customWidth="1"/>
-    <col min="4867" max="4868" width="14.6640625" customWidth="1"/>
-    <col min="4869" max="4869" width="18.44140625" customWidth="1"/>
+    <col min="4867" max="4868" width="14.7109375" customWidth="1"/>
+    <col min="4869" max="4869" width="18.42578125" customWidth="1"/>
     <col min="4870" max="4870" width="12" customWidth="1"/>
     <col min="4871" max="4871" width="11" customWidth="1"/>
-    <col min="5123" max="5124" width="14.6640625" customWidth="1"/>
-    <col min="5125" max="5125" width="18.44140625" customWidth="1"/>
+    <col min="5123" max="5124" width="14.7109375" customWidth="1"/>
+    <col min="5125" max="5125" width="18.42578125" customWidth="1"/>
     <col min="5126" max="5126" width="12" customWidth="1"/>
     <col min="5127" max="5127" width="11" customWidth="1"/>
-    <col min="5379" max="5380" width="14.6640625" customWidth="1"/>
-    <col min="5381" max="5381" width="18.44140625" customWidth="1"/>
+    <col min="5379" max="5380" width="14.7109375" customWidth="1"/>
+    <col min="5381" max="5381" width="18.42578125" customWidth="1"/>
     <col min="5382" max="5382" width="12" customWidth="1"/>
     <col min="5383" max="5383" width="11" customWidth="1"/>
-    <col min="5635" max="5636" width="14.6640625" customWidth="1"/>
-    <col min="5637" max="5637" width="18.44140625" customWidth="1"/>
+    <col min="5635" max="5636" width="14.7109375" customWidth="1"/>
+    <col min="5637" max="5637" width="18.42578125" customWidth="1"/>
     <col min="5638" max="5638" width="12" customWidth="1"/>
     <col min="5639" max="5639" width="11" customWidth="1"/>
-    <col min="5891" max="5892" width="14.6640625" customWidth="1"/>
-    <col min="5893" max="5893" width="18.44140625" customWidth="1"/>
+    <col min="5891" max="5892" width="14.7109375" customWidth="1"/>
+    <col min="5893" max="5893" width="18.42578125" customWidth="1"/>
     <col min="5894" max="5894" width="12" customWidth="1"/>
     <col min="5895" max="5895" width="11" customWidth="1"/>
-    <col min="6147" max="6148" width="14.6640625" customWidth="1"/>
-    <col min="6149" max="6149" width="18.44140625" customWidth="1"/>
+    <col min="6147" max="6148" width="14.7109375" customWidth="1"/>
+    <col min="6149" max="6149" width="18.42578125" customWidth="1"/>
     <col min="6150" max="6150" width="12" customWidth="1"/>
     <col min="6151" max="6151" width="11" customWidth="1"/>
-    <col min="6403" max="6404" width="14.6640625" customWidth="1"/>
-    <col min="6405" max="6405" width="18.44140625" customWidth="1"/>
+    <col min="6403" max="6404" width="14.7109375" customWidth="1"/>
+    <col min="6405" max="6405" width="18.42578125" customWidth="1"/>
     <col min="6406" max="6406" width="12" customWidth="1"/>
     <col min="6407" max="6407" width="11" customWidth="1"/>
-    <col min="6659" max="6660" width="14.6640625" customWidth="1"/>
-    <col min="6661" max="6661" width="18.44140625" customWidth="1"/>
+    <col min="6659" max="6660" width="14.7109375" customWidth="1"/>
+    <col min="6661" max="6661" width="18.42578125" customWidth="1"/>
     <col min="6662" max="6662" width="12" customWidth="1"/>
     <col min="6663" max="6663" width="11" customWidth="1"/>
-    <col min="6915" max="6916" width="14.6640625" customWidth="1"/>
-    <col min="6917" max="6917" width="18.44140625" customWidth="1"/>
+    <col min="6915" max="6916" width="14.7109375" customWidth="1"/>
+    <col min="6917" max="6917" width="18.42578125" customWidth="1"/>
     <col min="6918" max="6918" width="12" customWidth="1"/>
     <col min="6919" max="6919" width="11" customWidth="1"/>
-    <col min="7171" max="7172" width="14.6640625" customWidth="1"/>
-    <col min="7173" max="7173" width="18.44140625" customWidth="1"/>
+    <col min="7171" max="7172" width="14.7109375" customWidth="1"/>
+    <col min="7173" max="7173" width="18.42578125" customWidth="1"/>
     <col min="7174" max="7174" width="12" customWidth="1"/>
     <col min="7175" max="7175" width="11" customWidth="1"/>
-    <col min="7427" max="7428" width="14.6640625" customWidth="1"/>
-    <col min="7429" max="7429" width="18.44140625" customWidth="1"/>
+    <col min="7427" max="7428" width="14.7109375" customWidth="1"/>
+    <col min="7429" max="7429" width="18.42578125" customWidth="1"/>
     <col min="7430" max="7430" width="12" customWidth="1"/>
     <col min="7431" max="7431" width="11" customWidth="1"/>
-    <col min="7683" max="7684" width="14.6640625" customWidth="1"/>
-    <col min="7685" max="7685" width="18.44140625" customWidth="1"/>
+    <col min="7683" max="7684" width="14.7109375" customWidth="1"/>
+    <col min="7685" max="7685" width="18.42578125" customWidth="1"/>
     <col min="7686" max="7686" width="12" customWidth="1"/>
     <col min="7687" max="7687" width="11" customWidth="1"/>
-    <col min="7939" max="7940" width="14.6640625" customWidth="1"/>
-    <col min="7941" max="7941" width="18.44140625" customWidth="1"/>
+    <col min="7939" max="7940" width="14.7109375" customWidth="1"/>
+    <col min="7941" max="7941" width="18.42578125" customWidth="1"/>
     <col min="7942" max="7942" width="12" customWidth="1"/>
     <col min="7943" max="7943" width="11" customWidth="1"/>
-    <col min="8195" max="8196" width="14.6640625" customWidth="1"/>
-    <col min="8197" max="8197" width="18.44140625" customWidth="1"/>
+    <col min="8195" max="8196" width="14.7109375" customWidth="1"/>
+    <col min="8197" max="8197" width="18.42578125" customWidth="1"/>
     <col min="8198" max="8198" width="12" customWidth="1"/>
     <col min="8199" max="8199" width="11" customWidth="1"/>
-    <col min="8451" max="8452" width="14.6640625" customWidth="1"/>
-    <col min="8453" max="8453" width="18.44140625" customWidth="1"/>
+    <col min="8451" max="8452" width="14.7109375" customWidth="1"/>
+    <col min="8453" max="8453" width="18.42578125" customWidth="1"/>
     <col min="8454" max="8454" width="12" customWidth="1"/>
     <col min="8455" max="8455" width="11" customWidth="1"/>
-    <col min="8707" max="8708" width="14.6640625" customWidth="1"/>
-    <col min="8709" max="8709" width="18.44140625" customWidth="1"/>
+    <col min="8707" max="8708" width="14.7109375" customWidth="1"/>
+    <col min="8709" max="8709" width="18.42578125" customWidth="1"/>
     <col min="8710" max="8710" width="12" customWidth="1"/>
     <col min="8711" max="8711" width="11" customWidth="1"/>
-    <col min="8963" max="8964" width="14.6640625" customWidth="1"/>
-    <col min="8965" max="8965" width="18.44140625" customWidth="1"/>
+    <col min="8963" max="8964" width="14.7109375" customWidth="1"/>
+    <col min="8965" max="8965" width="18.42578125" customWidth="1"/>
     <col min="8966" max="8966" width="12" customWidth="1"/>
     <col min="8967" max="8967" width="11" customWidth="1"/>
-    <col min="9219" max="9220" width="14.6640625" customWidth="1"/>
-    <col min="9221" max="9221" width="18.44140625" customWidth="1"/>
+    <col min="9219" max="9220" width="14.7109375" customWidth="1"/>
+    <col min="9221" max="9221" width="18.42578125" customWidth="1"/>
     <col min="9222" max="9222" width="12" customWidth="1"/>
     <col min="9223" max="9223" width="11" customWidth="1"/>
-    <col min="9475" max="9476" width="14.6640625" customWidth="1"/>
-    <col min="9477" max="9477" width="18.44140625" customWidth="1"/>
+    <col min="9475" max="9476" width="14.7109375" customWidth="1"/>
+    <col min="9477" max="9477" width="18.42578125" customWidth="1"/>
     <col min="9478" max="9478" width="12" customWidth="1"/>
     <col min="9479" max="9479" width="11" customWidth="1"/>
-    <col min="9731" max="9732" width="14.6640625" customWidth="1"/>
-    <col min="9733" max="9733" width="18.44140625" customWidth="1"/>
+    <col min="9731" max="9732" width="14.7109375" customWidth="1"/>
+    <col min="9733" max="9733" width="18.42578125" customWidth="1"/>
     <col min="9734" max="9734" width="12" customWidth="1"/>
     <col min="9735" max="9735" width="11" customWidth="1"/>
-    <col min="9987" max="9988" width="14.6640625" customWidth="1"/>
-    <col min="9989" max="9989" width="18.44140625" customWidth="1"/>
+    <col min="9987" max="9988" width="14.7109375" customWidth="1"/>
+    <col min="9989" max="9989" width="18.42578125" customWidth="1"/>
     <col min="9990" max="9990" width="12" customWidth="1"/>
     <col min="9991" max="9991" width="11" customWidth="1"/>
-    <col min="10243" max="10244" width="14.6640625" customWidth="1"/>
-    <col min="10245" max="10245" width="18.44140625" customWidth="1"/>
+    <col min="10243" max="10244" width="14.7109375" customWidth="1"/>
+    <col min="10245" max="10245" width="18.42578125" customWidth="1"/>
     <col min="10246" max="10246" width="12" customWidth="1"/>
     <col min="10247" max="10247" width="11" customWidth="1"/>
-    <col min="10499" max="10500" width="14.6640625" customWidth="1"/>
-    <col min="10501" max="10501" width="18.44140625" customWidth="1"/>
+    <col min="10499" max="10500" width="14.7109375" customWidth="1"/>
+    <col min="10501" max="10501" width="18.42578125" customWidth="1"/>
     <col min="10502" max="10502" width="12" customWidth="1"/>
     <col min="10503" max="10503" width="11" customWidth="1"/>
-    <col min="10755" max="10756" width="14.6640625" customWidth="1"/>
-    <col min="10757" max="10757" width="18.44140625" customWidth="1"/>
+    <col min="10755" max="10756" width="14.7109375" customWidth="1"/>
+    <col min="10757" max="10757" width="18.42578125" customWidth="1"/>
     <col min="10758" max="10758" width="12" customWidth="1"/>
     <col min="10759" max="10759" width="11" customWidth="1"/>
-    <col min="11011" max="11012" width="14.6640625" customWidth="1"/>
-    <col min="11013" max="11013" width="18.44140625" customWidth="1"/>
+    <col min="11011" max="11012" width="14.7109375" customWidth="1"/>
+    <col min="11013" max="11013" width="18.42578125" customWidth="1"/>
     <col min="11014" max="11014" width="12" customWidth="1"/>
     <col min="11015" max="11015" width="11" customWidth="1"/>
-    <col min="11267" max="11268" width="14.6640625" customWidth="1"/>
-    <col min="11269" max="11269" width="18.44140625" customWidth="1"/>
+    <col min="11267" max="11268" width="14.7109375" customWidth="1"/>
+    <col min="11269" max="11269" width="18.42578125" customWidth="1"/>
     <col min="11270" max="11270" width="12" customWidth="1"/>
     <col min="11271" max="11271" width="11" customWidth="1"/>
-    <col min="11523" max="11524" width="14.6640625" customWidth="1"/>
-    <col min="11525" max="11525" width="18.44140625" customWidth="1"/>
+    <col min="11523" max="11524" width="14.7109375" customWidth="1"/>
+    <col min="11525" max="11525" width="18.42578125" customWidth="1"/>
     <col min="11526" max="11526" width="12" customWidth="1"/>
     <col min="11527" max="11527" width="11" customWidth="1"/>
-    <col min="11779" max="11780" width="14.6640625" customWidth="1"/>
-    <col min="11781" max="11781" width="18.44140625" customWidth="1"/>
+    <col min="11779" max="11780" width="14.7109375" customWidth="1"/>
+    <col min="11781" max="11781" width="18.42578125" customWidth="1"/>
     <col min="11782" max="11782" width="12" customWidth="1"/>
     <col min="11783" max="11783" width="11" customWidth="1"/>
-    <col min="12035" max="12036" width="14.6640625" customWidth="1"/>
-    <col min="12037" max="12037" width="18.44140625" customWidth="1"/>
+    <col min="12035" max="12036" width="14.7109375" customWidth="1"/>
+    <col min="12037" max="12037" width="18.42578125" customWidth="1"/>
     <col min="12038" max="12038" width="12" customWidth="1"/>
     <col min="12039" max="12039" width="11" customWidth="1"/>
-    <col min="12291" max="12292" width="14.6640625" customWidth="1"/>
-    <col min="12293" max="12293" width="18.44140625" customWidth="1"/>
+    <col min="12291" max="12292" width="14.7109375" customWidth="1"/>
+    <col min="12293" max="12293" width="18.42578125" customWidth="1"/>
     <col min="12294" max="12294" width="12" customWidth="1"/>
     <col min="12295" max="12295" width="11" customWidth="1"/>
-    <col min="12547" max="12548" width="14.6640625" customWidth="1"/>
-    <col min="12549" max="12549" width="18.44140625" customWidth="1"/>
+    <col min="12547" max="12548" width="14.7109375" customWidth="1"/>
+    <col min="12549" max="12549" width="18.42578125" customWidth="1"/>
     <col min="12550" max="12550" width="12" customWidth="1"/>
     <col min="12551" max="12551" width="11" customWidth="1"/>
-    <col min="12803" max="12804" width="14.6640625" customWidth="1"/>
-    <col min="12805" max="12805" width="18.44140625" customWidth="1"/>
+    <col min="12803" max="12804" width="14.7109375" customWidth="1"/>
+    <col min="12805" max="12805" width="18.42578125" customWidth="1"/>
     <col min="12806" max="12806" width="12" customWidth="1"/>
     <col min="12807" max="12807" width="11" customWidth="1"/>
-    <col min="13059" max="13060" width="14.6640625" customWidth="1"/>
-    <col min="13061" max="13061" width="18.44140625" customWidth="1"/>
+    <col min="13059" max="13060" width="14.7109375" customWidth="1"/>
+    <col min="13061" max="13061" width="18.42578125" customWidth="1"/>
     <col min="13062" max="13062" width="12" customWidth="1"/>
     <col min="13063" max="13063" width="11" customWidth="1"/>
-    <col min="13315" max="13316" width="14.6640625" customWidth="1"/>
-    <col min="13317" max="13317" width="18.44140625" customWidth="1"/>
+    <col min="13315" max="13316" width="14.7109375" customWidth="1"/>
+    <col min="13317" max="13317" width="18.42578125" customWidth="1"/>
     <col min="13318" max="13318" width="12" customWidth="1"/>
     <col min="13319" max="13319" width="11" customWidth="1"/>
-    <col min="13571" max="13572" width="14.6640625" customWidth="1"/>
-    <col min="13573" max="13573" width="18.44140625" customWidth="1"/>
+    <col min="13571" max="13572" width="14.7109375" customWidth="1"/>
+    <col min="13573" max="13573" width="18.42578125" customWidth="1"/>
     <col min="13574" max="13574" width="12" customWidth="1"/>
     <col min="13575" max="13575" width="11" customWidth="1"/>
-    <col min="13827" max="13828" width="14.6640625" customWidth="1"/>
-    <col min="13829" max="13829" width="18.44140625" customWidth="1"/>
+    <col min="13827" max="13828" width="14.7109375" customWidth="1"/>
+    <col min="13829" max="13829" width="18.42578125" customWidth="1"/>
     <col min="13830" max="13830" width="12" customWidth="1"/>
     <col min="13831" max="13831" width="11" customWidth="1"/>
-    <col min="14083" max="14084" width="14.6640625" customWidth="1"/>
-    <col min="14085" max="14085" width="18.44140625" customWidth="1"/>
+    <col min="14083" max="14084" width="14.7109375" customWidth="1"/>
+    <col min="14085" max="14085" width="18.42578125" customWidth="1"/>
     <col min="14086" max="14086" width="12" customWidth="1"/>
     <col min="14087" max="14087" width="11" customWidth="1"/>
-    <col min="14339" max="14340" width="14.6640625" customWidth="1"/>
-    <col min="14341" max="14341" width="18.44140625" customWidth="1"/>
+    <col min="14339" max="14340" width="14.7109375" customWidth="1"/>
+    <col min="14341" max="14341" width="18.42578125" customWidth="1"/>
     <col min="14342" max="14342" width="12" customWidth="1"/>
     <col min="14343" max="14343" width="11" customWidth="1"/>
-    <col min="14595" max="14596" width="14.6640625" customWidth="1"/>
-    <col min="14597" max="14597" width="18.44140625" customWidth="1"/>
+    <col min="14595" max="14596" width="14.7109375" customWidth="1"/>
+    <col min="14597" max="14597" width="18.42578125" customWidth="1"/>
     <col min="14598" max="14598" width="12" customWidth="1"/>
     <col min="14599" max="14599" width="11" customWidth="1"/>
-    <col min="14851" max="14852" width="14.6640625" customWidth="1"/>
-    <col min="14853" max="14853" width="18.44140625" customWidth="1"/>
+    <col min="14851" max="14852" width="14.7109375" customWidth="1"/>
+    <col min="14853" max="14853" width="18.42578125" customWidth="1"/>
     <col min="14854" max="14854" width="12" customWidth="1"/>
     <col min="14855" max="14855" width="11" customWidth="1"/>
-    <col min="15107" max="15108" width="14.6640625" customWidth="1"/>
-    <col min="15109" max="15109" width="18.44140625" customWidth="1"/>
+    <col min="15107" max="15108" width="14.7109375" customWidth="1"/>
+    <col min="15109" max="15109" width="18.42578125" customWidth="1"/>
     <col min="15110" max="15110" width="12" customWidth="1"/>
     <col min="15111" max="15111" width="11" customWidth="1"/>
-    <col min="15363" max="15364" width="14.6640625" customWidth="1"/>
-    <col min="15365" max="15365" width="18.44140625" customWidth="1"/>
+    <col min="15363" max="15364" width="14.7109375" customWidth="1"/>
+    <col min="15365" max="15365" width="18.42578125" customWidth="1"/>
     <col min="15366" max="15366" width="12" customWidth="1"/>
     <col min="15367" max="15367" width="11" customWidth="1"/>
-    <col min="15619" max="15620" width="14.6640625" customWidth="1"/>
-    <col min="15621" max="15621" width="18.44140625" customWidth="1"/>
+    <col min="15619" max="15620" width="14.7109375" customWidth="1"/>
+    <col min="15621" max="15621" width="18.42578125" customWidth="1"/>
     <col min="15622" max="15622" width="12" customWidth="1"/>
     <col min="15623" max="15623" width="11" customWidth="1"/>
-    <col min="15875" max="15876" width="14.6640625" customWidth="1"/>
-    <col min="15877" max="15877" width="18.44140625" customWidth="1"/>
+    <col min="15875" max="15876" width="14.7109375" customWidth="1"/>
+    <col min="15877" max="15877" width="18.42578125" customWidth="1"/>
     <col min="15878" max="15878" width="12" customWidth="1"/>
     <col min="15879" max="15879" width="11" customWidth="1"/>
-    <col min="16131" max="16132" width="14.6640625" customWidth="1"/>
-    <col min="16133" max="16133" width="18.44140625" customWidth="1"/>
+    <col min="16131" max="16132" width="14.7109375" customWidth="1"/>
+    <col min="16133" max="16133" width="18.42578125" customWidth="1"/>
     <col min="16134" max="16134" width="12" customWidth="1"/>
     <col min="16135" max="16135" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="48" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -981,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
@@ -991,7 +993,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1003,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1013,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1023,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="10" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1096,7 @@
       </c>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="18"/>
       <c r="E13" s="19">
         <v>100</v>
@@ -1109,7 +1111,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="18"/>
       <c r="E14" s="19">
         <v>100</v>
@@ -1124,7 +1126,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="18"/>
       <c r="E15" s="19">
         <v>100</v>
@@ -1137,7 +1139,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="18"/>
@@ -1148,7 +1150,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="18"/>
@@ -1159,7 +1161,7 @@
       <c r="K17" s="18"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="18"/>
@@ -1170,7 +1172,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="18"/>
@@ -1181,7 +1183,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1252,31 +1254,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BEA943-7B62-4768-A56D-0E0E9662F456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1290,22 +1292,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1316,22 +1318,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1342,32 +1344,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1378,31 +1380,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9965B209-73D4-4B2A-BDF7-0534C9A0F635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1416,22 +1418,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1442,22 +1444,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1468,32 +1470,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1504,31 +1506,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83DA999-F33D-4478-ABA1-800F6A1C98D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1542,22 +1544,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1568,22 +1570,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1594,32 +1596,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1630,31 +1632,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55265681-59B0-44D0-9048-1CCE96FA08C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1668,22 +1670,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1694,22 +1696,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1720,32 +1722,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1756,31 +1758,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC67FBAB-A855-4860-A425-3A589488CB25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1794,22 +1796,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1820,22 +1822,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1846,32 +1848,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1882,31 +1884,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14ED57B-8388-47B4-A302-CDF42172D32F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1920,22 +1922,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1946,22 +1948,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1972,32 +1974,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2008,31 +2010,31 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B75147-9E74-40A4-AB44-B7EB6775D8F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2046,22 +2048,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2072,22 +2074,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2098,32 +2100,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2134,31 +2136,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D39B04-4F64-4856-AF4E-E9C2E60F4355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2172,22 +2174,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2198,22 +2203,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2224,32 +2229,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2261,31 +2266,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1E38B9-672B-4EE2-B430-3B1C0F745299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2299,22 +2304,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2325,22 +2330,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2351,32 +2356,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2387,31 +2392,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2425,22 +2430,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2451,22 +2456,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2477,32 +2482,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2513,31 +2518,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2551,22 +2556,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2577,22 +2582,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2603,32 +2608,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2640,31 +2645,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2678,22 +2683,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2704,22 +2709,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2730,32 +2735,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2766,31 +2771,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2804,22 +2809,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2830,22 +2835,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2856,32 +2861,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2892,31 +2897,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A638AF9C-B8A9-4757-A291-52546D24B433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2930,22 +2935,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2956,22 +2961,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2982,32 +2987,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3018,31 +3023,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E595F08-CBD6-47B8-B2D7-B51C89DF1FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3056,22 +3061,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -3082,22 +3087,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3108,32 +3113,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>

--- a/CSC3510 S2021/00CourseNotesFormat CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat CSC3510 TU TH.xlsx
@@ -437,6 +437,391 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37492</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="3181350"/>
+          <a:ext cx="4866667" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9019</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="5095875"/>
+          <a:ext cx="4047619" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1237701</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="6724650"/>
+          <a:ext cx="4390476" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2961905</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="5895975"/>
+          <a:ext cx="2961905" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1933056</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="8181975"/>
+          <a:ext cx="4152381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>599231</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="7991475"/>
+          <a:ext cx="6752381" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2199769</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6276975"/>
+          <a:ext cx="4047619" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2018770</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>37833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="10277475"/>
+          <a:ext cx="4238095" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="10467975"/>
+          <a:ext cx="4200000" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2323194</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="12944475"/>
+          <a:ext cx="7247619" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2139,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,6 +2647,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CSC3510 S2021/00CourseNotesFormat CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat CSC3510 TU TH.xlsx
@@ -822,6 +822,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504242</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="12306300"/>
+          <a:ext cx="4666667" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1875930</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="15792450"/>
+          <a:ext cx="3961905" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3755708" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="15792450"/>
+          <a:ext cx="3755708" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Only</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> about 5% listed the 7 prinicples of testing ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2524,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
